--- a/src/predicciones/holt_winters/producto_1.xlsx
+++ b/src/predicciones/holt_winters/producto_1.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1023 +404,1023 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44931</v>
       </c>
       <c r="B2">
-        <v>0.9998177876543395</v>
+        <v>0.9999424947234851</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44933</v>
       </c>
       <c r="B3">
-        <v>1.000010591341307</v>
+        <v>0.9999793888815396</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44934</v>
       </c>
       <c r="B4">
-        <v>2.000194582556774</v>
+        <v>2.00002006279011</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44935</v>
       </c>
       <c r="B5">
-        <v>2.000225322146811</v>
+        <v>2.000034570292397</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44940</v>
       </c>
       <c r="B6">
-        <v>2.000111595914214</v>
+        <v>2.00001913009867</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44948</v>
       </c>
       <c r="B7">
-        <v>2.000006655225006</v>
+        <v>1.999999908428739</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44958</v>
       </c>
       <c r="B8">
-        <v>0.9997760238251068</v>
+        <v>0.9999354526890992</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44975</v>
       </c>
       <c r="B9">
-        <v>0.9998244034667065</v>
+        <v>0.9999424012875483</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44980</v>
       </c>
       <c r="B10">
-        <v>1.000017207153674</v>
+        <v>0.9999792954456028</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44981</v>
       </c>
       <c r="B11">
-        <v>2.000201198369142</v>
+        <v>2.000019969354173</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44982</v>
       </c>
       <c r="B12">
-        <v>2.000231937959178</v>
+        <v>2.00003447685646</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44988</v>
       </c>
       <c r="B13">
-        <v>2.000118211726581</v>
+        <v>2.000019036662733</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44991</v>
       </c>
       <c r="B14">
-        <v>2.000013271037373</v>
+        <v>1.999999814992802</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44995</v>
       </c>
       <c r="B15">
-        <v>0.9997826396374738</v>
+        <v>0.9999353592531625</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44997</v>
       </c>
       <c r="B16">
-        <v>0.9998310192790738</v>
+        <v>0.9999423078516115</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44998</v>
       </c>
       <c r="B17">
-        <v>1.000023822966041</v>
+        <v>0.9999792020096661</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>45003</v>
       </c>
       <c r="B18">
-        <v>2.000207814181509</v>
+        <v>2.000019875918237</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>45005</v>
       </c>
       <c r="B19">
-        <v>2.000238553771545</v>
+        <v>2.000034383420523</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45006</v>
       </c>
       <c r="B20">
-        <v>2.000124827538948</v>
+        <v>2.000018943226797</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45008</v>
       </c>
       <c r="B21">
-        <v>2.000019886849741</v>
+        <v>1.999999721556866</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45010</v>
       </c>
       <c r="B22">
-        <v>0.9997892554498411</v>
+        <v>0.9999352658172259</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45012</v>
       </c>
       <c r="B23">
-        <v>0.9998376350914409</v>
+        <v>0.9999422144156748</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45016</v>
       </c>
       <c r="B24">
-        <v>1.000030438778408</v>
+        <v>0.9999791085737293</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45017</v>
       </c>
       <c r="B25">
-        <v>2.000214429993876</v>
+        <v>2.000019782482299</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45028</v>
       </c>
       <c r="B26">
-        <v>2.000245169583912</v>
+        <v>2.000034289984586</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45049</v>
       </c>
       <c r="B27">
-        <v>2.000131443351315</v>
+        <v>2.00001884979086</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45051</v>
       </c>
       <c r="B28">
-        <v>2.000026502662108</v>
+        <v>1.999999628120929</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45052</v>
       </c>
       <c r="B29">
-        <v>0.9997958712622081</v>
+        <v>0.9999351723812892</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45056</v>
       </c>
       <c r="B30">
-        <v>0.9998442509038081</v>
+        <v>0.9999421209797382</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45064</v>
       </c>
       <c r="B31">
-        <v>1.000037054590776</v>
+        <v>0.9999790151377927</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45066</v>
       </c>
       <c r="B32">
-        <v>2.000221045806243</v>
+        <v>2.000019689046363</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45070</v>
       </c>
       <c r="B33">
-        <v>2.00025178539628</v>
+        <v>2.00003419654865</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45084</v>
       </c>
       <c r="B34">
-        <v>2.000138059163682</v>
+        <v>2.000018756354923</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45087</v>
       </c>
       <c r="B35">
-        <v>2.000033118474475</v>
+        <v>1.999999534684992</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45099</v>
       </c>
       <c r="B36">
-        <v>0.9998024870745754</v>
+        <v>0.9999350789453524</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45102</v>
       </c>
       <c r="B37">
-        <v>0.9998508667161752</v>
+        <v>0.9999420275438015</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45104</v>
       </c>
       <c r="B38">
-        <v>1.000043670403143</v>
+        <v>0.999978921701856</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45105</v>
       </c>
       <c r="B39">
-        <v>2.00022766161861</v>
+        <v>2.000019595610426</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45106</v>
       </c>
       <c r="B40">
-        <v>2.000258401208646</v>
+        <v>2.000034103112713</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45107</v>
       </c>
       <c r="B41">
-        <v>2.000144674976049</v>
+        <v>2.000018662918986</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45108</v>
       </c>
       <c r="B42">
-        <v>2.000039734286842</v>
+        <v>1.999999441249055</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45116</v>
       </c>
       <c r="B43">
-        <v>0.9998091028869425</v>
+        <v>0.9999349855094156</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45117</v>
       </c>
       <c r="B44">
-        <v>0.9998574825285425</v>
+        <v>0.9999419341078647</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45124</v>
       </c>
       <c r="B45">
-        <v>1.00005028621551</v>
+        <v>0.9999788282659192</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45126</v>
       </c>
       <c r="B46">
-        <v>2.000234277430978</v>
+        <v>2.00001950217449</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45130</v>
       </c>
       <c r="B47">
-        <v>2.000265017021014</v>
+        <v>2.000034009676776</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45133</v>
       </c>
       <c r="B48">
-        <v>2.000151290788417</v>
+        <v>2.000018569483049</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45137</v>
       </c>
       <c r="B49">
-        <v>2.000046350099209</v>
+        <v>1.999999347813119</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45138</v>
       </c>
       <c r="B50">
-        <v>0.9998157186993097</v>
+        <v>0.9999348920734789</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45146</v>
       </c>
       <c r="B51">
-        <v>0.9998640983409095</v>
+        <v>0.9999418406719279</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45149</v>
       </c>
       <c r="B52">
-        <v>1.000056902027877</v>
+        <v>0.9999787348299825</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45152</v>
       </c>
       <c r="B53">
-        <v>2.000240893243345</v>
+        <v>2.000019408738553</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45154</v>
       </c>
       <c r="B54">
-        <v>2.000271632833381</v>
+        <v>2.00003391624084</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45155</v>
       </c>
       <c r="B55">
-        <v>2.000157906600784</v>
+        <v>2.000018476047113</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45157</v>
       </c>
       <c r="B56">
-        <v>2.000052965911576</v>
+        <v>1.999999254377182</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45180</v>
       </c>
       <c r="B57">
-        <v>0.9998223345116768</v>
+        <v>0.9999347986375423</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45190</v>
       </c>
       <c r="B58">
-        <v>0.9998707141532768</v>
+        <v>0.9999417472359912</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45206</v>
       </c>
       <c r="B59">
-        <v>1.000063517840244</v>
+        <v>0.9999786413940457</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45207</v>
       </c>
       <c r="B60">
-        <v>2.000247509055712</v>
+        <v>2.000019315302616</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45211</v>
       </c>
       <c r="B61">
-        <v>2.000278248645748</v>
+        <v>2.000033822804903</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45214</v>
       </c>
       <c r="B62">
-        <v>2.000164522413151</v>
+        <v>2.000018382611176</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45216</v>
       </c>
       <c r="B63">
-        <v>2.000059581723943</v>
+        <v>1.999999160941245</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45218</v>
       </c>
       <c r="B64">
-        <v>0.9998289503240441</v>
+        <v>0.9999347052016055</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45229</v>
       </c>
       <c r="B65">
-        <v>0.9998773299656438</v>
+        <v>0.9999416538000546</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45238</v>
       </c>
       <c r="B66">
-        <v>1.000070133652611</v>
+        <v>0.9999785479581091</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45241</v>
       </c>
       <c r="B67">
-        <v>2.000254124868079</v>
+        <v>2.000019221866679</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45244</v>
       </c>
       <c r="B68">
-        <v>2.000284864458115</v>
+        <v>2.000033729368966</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45251</v>
       </c>
       <c r="B69">
-        <v>2.000171138225518</v>
+        <v>2.000018289175239</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45258</v>
       </c>
       <c r="B70">
-        <v>2.000066197536311</v>
+        <v>1.999999067505309</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45262</v>
       </c>
       <c r="B71">
-        <v>0.9998355661364111</v>
+        <v>0.9999346117656688</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45263</v>
       </c>
       <c r="B72">
-        <v>0.9998839457780111</v>
+        <v>0.9999415603641179</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45265</v>
       </c>
       <c r="B73">
-        <v>1.000076749464978</v>
+        <v>0.9999784545221724</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45266</v>
       </c>
       <c r="B74">
-        <v>2.000260740680446</v>
+        <v>2.000019128430742</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45269</v>
       </c>
       <c r="B75">
-        <v>2.000291480270482</v>
+        <v>2.00003363593303</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45273</v>
       </c>
       <c r="B76">
-        <v>2.000177754037885</v>
+        <v>2.000018195739302</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45278</v>
       </c>
       <c r="B77">
-        <v>2.000072813348678</v>
+        <v>1.999998974069372</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45280</v>
       </c>
       <c r="B78">
-        <v>0.9998421819487784</v>
+        <v>0.999934518329732</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45288</v>
       </c>
       <c r="B79">
-        <v>0.9998905615903781</v>
+        <v>0.9999414669281811</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45295</v>
       </c>
       <c r="B80">
-        <v>1.000083365277346</v>
+        <v>0.9999783610862356</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45296</v>
       </c>
       <c r="B81">
-        <v>2.000267356492814</v>
+        <v>2.000019034994806</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45302</v>
       </c>
       <c r="B82">
-        <v>2.00029809608285</v>
+        <v>2.000033542497093</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45304</v>
       </c>
       <c r="B83">
-        <v>2.000184369850253</v>
+        <v>2.000018102303366</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45307</v>
       </c>
       <c r="B84">
-        <v>2.000079429161045</v>
+        <v>1.999998880633435</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45313</v>
       </c>
       <c r="B85">
-        <v>0.9998487977611454</v>
+        <v>0.9999344248937952</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45315</v>
       </c>
       <c r="B86">
-        <v>0.9998971774027454</v>
+        <v>0.9999413734922443</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45320</v>
       </c>
       <c r="B87">
-        <v>1.000089981089713</v>
+        <v>0.9999782676502988</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45321</v>
       </c>
       <c r="B88">
-        <v>2.00027397230518</v>
+        <v>2.000018941558869</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45324</v>
       </c>
       <c r="B89">
-        <v>2.000304711895217</v>
+        <v>2.000033449061156</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45328</v>
       </c>
       <c r="B90">
-        <v>2.000190985662619</v>
+        <v>2.000018008867429</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45329</v>
       </c>
       <c r="B91">
-        <v>2.000086044973412</v>
+        <v>1.999998787197498</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45332</v>
       </c>
       <c r="B92">
-        <v>0.9998554135735127</v>
+        <v>0.9999343314578587</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45346</v>
       </c>
       <c r="B93">
-        <v>0.9999037932151125</v>
+        <v>0.9999412800563076</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45347</v>
       </c>
       <c r="B94">
-        <v>1.00009659690208</v>
+        <v>0.9999781742143621</v>
       </c>
       <c r="C94">
         <v>1</v>
